--- a/food_groups/meat.xlsx
+++ b/food_groups/meat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B27729-193E-4E61-A184-EB3DF79F98E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622E3D79-4B06-4002-AEA3-1896EF4BEBFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meat" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Lamb</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F63B581-3CCF-406A-BC79-D32FBF339614}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A22"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,39 +490,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -524,17 +530,25 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -545,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,41 +574,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -605,10 +627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AE204F-D8BB-49D6-9E4D-47532BCE6A6E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,17 +641,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -640,10 +670,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7422A70D-287B-44C2-AE10-BFA854CED454}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,17 +684,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -675,10 +713,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356DD906-8FAA-4118-9BEC-32AEDD4E9133}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,41 +730,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -737,42 +783,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D150B1A3-CAB0-4845-BCE5-1361B698E08E}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34029E5-578B-4625-9CCF-B17AA8D2F971}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,17 +796,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -801,12 +823,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3FDBF9-13FB-4B8C-AE3D-F0C9FB2A2108}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34029E5-578B-4625-9CCF-B17AA8D2F971}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,17 +838,67 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3FDBF9-13FB-4B8C-AE3D-F0C9FB2A2108}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>

--- a/food_groups/meat.xlsx
+++ b/food_groups/meat.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622E3D79-4B06-4002-AEA3-1896EF4BEBFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A5055-15B1-40FF-B7CD-3D824534CF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Meat" sheetId="2" r:id="rId1"/>
-    <sheet name="White_Meat" sheetId="1" r:id="rId2"/>
-    <sheet name="Fish" sheetId="4" r:id="rId3"/>
-    <sheet name="Fowl" sheetId="5" r:id="rId4"/>
-    <sheet name="Red_Meat" sheetId="3" r:id="rId5"/>
-    <sheet name="Pork" sheetId="6" r:id="rId6"/>
-    <sheet name="Beef" sheetId="7" r:id="rId7"/>
-    <sheet name="Lamb" sheetId="8" r:id="rId8"/>
+    <sheet name="meat" sheetId="2" r:id="rId1"/>
+    <sheet name="white meat" sheetId="1" r:id="rId2"/>
+    <sheet name="fish" sheetId="4" r:id="rId3"/>
+    <sheet name="fowl" sheetId="5" r:id="rId4"/>
+    <sheet name="red meat" sheetId="3" r:id="rId5"/>
+    <sheet name="pork" sheetId="6" r:id="rId6"/>
+    <sheet name="beef" sheetId="7" r:id="rId7"/>
+    <sheet name="lamb" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,90 +37,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Healthy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>Vegetarian</t>
-  </si>
-  <si>
-    <t>Lactose-free</t>
-  </si>
-  <si>
-    <t>Gluten-free</t>
-  </si>
-  <si>
-    <t>Main-category</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Vegan</t>
-  </si>
-  <si>
-    <t>White Meat</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Food_Super_Group</t>
-  </si>
-  <si>
-    <t>Vegetarian_Substitute</t>
-  </si>
-  <si>
-    <t>Tofu</t>
-  </si>
-  <si>
-    <t>Vegan_Substitute</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>White_Meat</t>
-  </si>
-  <si>
-    <t>Fowl</t>
-  </si>
-  <si>
-    <t>Red Meat</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Plant-based_Red_Meat</t>
-  </si>
-  <si>
-    <t>Pork</t>
-  </si>
-  <si>
-    <t>Red_Meat</t>
-  </si>
-  <si>
-    <t>Beef</t>
-  </si>
-  <si>
-    <t>Lamb</t>
-  </si>
-  <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>Value</t>
+    <t>property</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>vegetarian</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>lactose-free</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gluten-free</t>
+  </si>
+  <si>
+    <t>main-category</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>vegan</t>
+  </si>
+  <si>
+    <t>lamb</t>
+  </si>
+  <si>
+    <t>red meat</t>
+  </si>
+  <si>
+    <t>food super group</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>vegetarian substitute</t>
+  </si>
+  <si>
+    <t>vegan substitute</t>
+  </si>
+  <si>
+    <t>plant-based red meat</t>
+  </si>
+  <si>
+    <t>white meat</t>
+  </si>
+  <si>
+    <t>fowl</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>tofu</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,66 +490,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,50 +574,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -630,7 +630,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,26 +641,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +673,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,26 +684,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +716,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,50 +730,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +786,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,26 +796,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +828,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,26 +838,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3FDBF9-13FB-4B8C-AE3D-F0C9FB2A2108}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,26 +880,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/food_groups/meat.xlsx
+++ b/food_groups/meat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A5055-15B1-40FF-B7CD-3D824534CF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB631945-475C-45AE-BB3D-CF4287236EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>pass</t>
   </si>
@@ -96,9 +96,6 @@
     <t>pork</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>vegetarian substitute</t>
   </si>
   <si>
@@ -117,10 +114,10 @@
     <t>fish</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>tofu</t>
+  </si>
+  <si>
+    <t>healthy substitute</t>
   </si>
 </sst>
 </file>
@@ -562,7 +559,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,15 +582,15 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="B3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -606,18 +603,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -660,7 +657,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -703,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -713,10 +710,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356DD906-8FAA-4118-9BEC-32AEDD4E9133}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,8 +745,8 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,18 +759,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +791,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/food_groups/meat.xlsx
+++ b/food_groups/meat.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB631945-475C-45AE-BB3D-CF4287236EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808B361-ED29-49FF-A542-7F9CB802C232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meat" sheetId="2" r:id="rId1"/>
     <sheet name="white meat" sheetId="1" r:id="rId2"/>
-    <sheet name="fish" sheetId="4" r:id="rId3"/>
-    <sheet name="fowl" sheetId="5" r:id="rId4"/>
-    <sheet name="red meat" sheetId="3" r:id="rId5"/>
-    <sheet name="pork" sheetId="6" r:id="rId6"/>
-    <sheet name="beef" sheetId="7" r:id="rId7"/>
-    <sheet name="lamb" sheetId="8" r:id="rId8"/>
+    <sheet name="shellfish" sheetId="9" r:id="rId3"/>
+    <sheet name="fish" sheetId="4" r:id="rId4"/>
+    <sheet name="fowl" sheetId="5" r:id="rId5"/>
+    <sheet name="chicken" sheetId="12" r:id="rId6"/>
+    <sheet name="duck" sheetId="10" r:id="rId7"/>
+    <sheet name="turkey" sheetId="11" r:id="rId8"/>
+    <sheet name="quail" sheetId="14" r:id="rId9"/>
+    <sheet name="pheasant" sheetId="16" r:id="rId10"/>
+    <sheet name="red meat" sheetId="3" r:id="rId11"/>
+    <sheet name="pork" sheetId="6" r:id="rId12"/>
+    <sheet name="goat" sheetId="18" r:id="rId13"/>
+    <sheet name="beef" sheetId="7" r:id="rId14"/>
+    <sheet name="lamb" sheetId="8" r:id="rId15"/>
+    <sheet name="bison" sheetId="13" r:id="rId16"/>
+    <sheet name="venison" sheetId="15" r:id="rId17"/>
+    <sheet name="rabbit" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="42">
   <si>
     <t>pass</t>
   </si>
@@ -118,6 +128,51 @@
   </si>
   <si>
     <t>healthy substitute</t>
+  </si>
+  <si>
+    <t>shellfish</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>scandinavian</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>mediterranean</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>quail</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>bison</t>
+  </si>
+  <si>
+    <t>venison</t>
+  </si>
+  <si>
+    <t>pheasant</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>goat</t>
   </si>
 </sst>
 </file>
@@ -469,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F63B581-3CCF-406A-BC79-D32FBF339614}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D8"/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,107 +604,43 @@
         <v>7</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AE204F-D8BB-49D6-9E4D-47532BCE6A6E}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A74E836-E639-4107-A5E8-262F43AC89A2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -657,63 +648,28 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7422A70D-287B-44C2-AE10-BFA854CED454}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356DD906-8FAA-4118-9BEC-32AEDD4E9133}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,17 +737,25 @@
         <v>21</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D150B1A3-CAB0-4845-BCE5-1361B698E08E}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,17 +787,72 @@
         <v>15</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B3DA3-5D32-46C7-ADC1-5BEF79DD049F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34029E5-578B-4625-9CCF-B17AA8D2F971}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,17 +884,25 @@
         <v>15</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3FDBF9-13FB-4B8C-AE3D-F0C9FB2A2108}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,6 +934,568 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A526732A-560E-44C0-B50C-EC6D45C50B1A}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DCE161-51E4-4C0F-A401-832F3D66E7C7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA552B17-5FC0-42D9-A6CC-7A16AA0BE166}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE861F52-F2B7-4218-944D-6EE7F96F9B01}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AE204F-D8BB-49D6-9E4D-47532BCE6A6E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7422A70D-287B-44C2-AE10-BFA854CED454}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA84AD88-1FAC-4A61-A385-4561623317A0}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DDCB3C-E107-44EF-B83D-683F32996012}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80511350-690C-4084-8581-A26377570F27}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F9C61F-0A5D-49CA-9B2E-5672A93D38A3}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/food_groups/meat.xlsx
+++ b/food_groups/meat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808B361-ED29-49FF-A542-7F9CB802C232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C852CE-0D90-459F-8F08-4E1CA628EEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meat" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
   <si>
     <t>pass</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>goat</t>
+  </si>
+  <si>
+    <t>food supergroup</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F63B581-3CCF-406A-BC79-D32FBF339614}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,6 +615,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -901,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3FDBF9-13FB-4B8C-AE3D-F0C9FB2A2108}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/food_groups/meat.xlsx
+++ b/food_groups/meat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C852CE-0D90-459F-8F08-4E1CA628EEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5652DA6-EE5C-4BAB-8100-CE5BB0C5BEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meat" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="42">
   <si>
     <t>pass</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>goat</t>
-  </si>
-  <si>
-    <t>food supergroup</t>
   </si>
 </sst>
 </file>
@@ -529,13 +526,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F63B581-3CCF-406A-BC79-D32FBF339614}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
@@ -617,7 +614,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -679,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356DD906-8FAA-4118-9BEC-32AEDD4E9133}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1177,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,6 +1229,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1283,6 +1281,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1333,6 +1332,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1380,6 +1382,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1427,6 +1432,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1474,6 +1482,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/food_groups/meat.xlsx
+++ b/food_groups/meat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5652DA6-EE5C-4BAB-8100-CE5BB0C5BEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C593AB33-DAD5-4363-9C3C-C903A6FB7E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meat" sheetId="2" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="quail" sheetId="14" r:id="rId9"/>
     <sheet name="pheasant" sheetId="16" r:id="rId10"/>
     <sheet name="red meat" sheetId="3" r:id="rId11"/>
-    <sheet name="pork" sheetId="6" r:id="rId12"/>
-    <sheet name="goat" sheetId="18" r:id="rId13"/>
-    <sheet name="beef" sheetId="7" r:id="rId14"/>
-    <sheet name="lamb" sheetId="8" r:id="rId15"/>
-    <sheet name="bison" sheetId="13" r:id="rId16"/>
-    <sheet name="venison" sheetId="15" r:id="rId17"/>
-    <sheet name="rabbit" sheetId="17" r:id="rId18"/>
+    <sheet name="broth" sheetId="19" r:id="rId12"/>
+    <sheet name="pork" sheetId="6" r:id="rId13"/>
+    <sheet name="goat" sheetId="18" r:id="rId14"/>
+    <sheet name="beef" sheetId="7" r:id="rId15"/>
+    <sheet name="lamb" sheetId="8" r:id="rId16"/>
+    <sheet name="bison" sheetId="13" r:id="rId17"/>
+    <sheet name="venison" sheetId="15" r:id="rId18"/>
+    <sheet name="rabbit" sheetId="17" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="44">
   <si>
     <t>pass</t>
   </si>
@@ -173,6 +174,12 @@
   </si>
   <si>
     <t>goat</t>
+  </si>
+  <si>
+    <t>broth</t>
+  </si>
+  <si>
+    <t>vegetable broth</t>
   </si>
 </sst>
 </file>
@@ -527,7 +534,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356DD906-8FAA-4118-9BEC-32AEDD4E9133}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -759,6 +766,61 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAAD70A-5E0E-45B9-8577-A97E04C328E3}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D150B1A3-CAB0-4845-BCE5-1361B698E08E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -808,7 +870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B3DA3-5D32-46C7-ADC1-5BEF79DD049F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -855,7 +917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34029E5-578B-4625-9CCF-B17AA8D2F971}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -905,7 +967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3FDBF9-13FB-4B8C-AE3D-F0C9FB2A2108}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -955,7 +1017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A526732A-560E-44C0-B50C-EC6D45C50B1A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1002,7 +1064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DCE161-51E4-4C0F-A401-832F3D66E7C7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1049,7 +1111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA552B17-5FC0-42D9-A6CC-7A16AA0BE166}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/food_groups/meat.xlsx
+++ b/food_groups/meat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C593AB33-DAD5-4363-9C3C-C903A6FB7E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0046085-B7B7-4BF7-88DC-693264A92266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meat" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="46">
   <si>
     <t>pass</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>vegetable broth</t>
+  </si>
+  <si>
+    <t>plant-based pork</t>
+  </si>
+  <si>
+    <t>plant-based ground beef</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAAD70A-5E0E-45B9-8577-A97E04C328E3}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -822,10 +828,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D150B1A3-CAB0-4845-BCE5-1361B698E08E}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,6 +871,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -872,10 +886,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B3DA3-5D32-46C7-ADC1-5BEF79DD049F}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,6 +926,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -919,10 +941,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34029E5-578B-4625-9CCF-B17AA8D2F971}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,6 +984,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -969,10 +999,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3FDBF9-13FB-4B8C-AE3D-F0C9FB2A2108}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,6 +1042,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1019,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A526732A-560E-44C0-B50C-EC6D45C50B1A}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,6 +1097,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1066,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DCE161-51E4-4C0F-A401-832F3D66E7C7}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,6 +1152,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1113,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA552B17-5FC0-42D9-A6CC-7A16AA0BE166}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,6 +1205,14 @@
       </c>
       <c r="B4" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/food_groups/meat.xlsx
+++ b/food_groups/meat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0046085-B7B7-4BF7-88DC-693264A92266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E84BB9-AF70-42EF-A361-EF1C8BFAC8BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meat" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="46">
   <si>
     <t>pass</t>
   </si>
@@ -828,10 +828,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D150B1A3-CAB0-4845-BCE5-1361B698E08E}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,6 +879,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -941,10 +949,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34029E5-578B-4625-9CCF-B17AA8D2F971}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,6 +1000,14 @@
         <v>45</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1169,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA552B17-5FC0-42D9-A6CC-7A16AA0BE166}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
